--- a/BD/MER_DER_Sistema de Gestão de Ordens de Produção.xlsx
+++ b/BD/MER_DER_Sistema de Gestão de Ordens de Produção.xlsx
@@ -606,7 +606,7 @@
     <sheetView workbookViewId="0" showGridLines="true"/>
   </sheetViews>
   <cols>
-    <col min="1" max="1" width="13.375" customWidth="1" level="0" outlineLevel="0"/>
+    <col min="1" max="1" width="16.375" customWidth="1" level="0" outlineLevel="0"/>
     <col min="2" max="2" width="13.875" customWidth="1" level="0" outlineLevel="0"/>
     <col min="3" max="3" width="9.5" customWidth="1" level="0" outlineLevel="0"/>
     <col min="4" max="4" width="9.5" customWidth="1" level="0" outlineLevel="0"/>
